--- a/biology/Zoologie/Colias_gigantea/Colias_gigantea.xlsx
+++ b/biology/Zoologie/Colias_gigantea/Colias_gigantea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias gigantea est un  insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias gigantea a été nommé par Strecker en 1900.
-Synonymes : Colias pelidne var. gigantea Strecker, 1900; Eurymus pelidne gigantea ; Dyar, 1903[1].
-Noms vernaculaires
-Colias gigantea se nomme Great Northern Sulphur ou Giant Sulphur ou Giant Northern Sulfur en anglais.
+Synonymes : Colias pelidne var. gigantea Strecker, 1900; Eurymus pelidne gigantea ; Dyar, 1903.
 </t>
         </is>
       </c>
@@ -542,14 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sous-espèces</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Colias gigantea gigantea de l'Alaska à l'Ontario.
-Colias gigantea mayi F. &amp; R. Chermock, 1940 ; dans le Wyoming, le Montana et l'Oregon.
-Colias gigantea harroweri Klots, 1940 [1].</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias gigantea se nomme Great Northern Sulphur ou Giant Sulphur ou Giant Northern Sulfur en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -574,15 +591,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias giganteae est un papillon de taille moyenne à grande (son envergure varie de 51 à 70 mm). Les ailes du mâle sont d'une couleur jaune, à bordure marron foncé veinée de jaune avec la cellule à l'aile antérieure  marquée d'un point noir et un point discocellulaire jaune très peu visible au centre de l'aile postérieure.
-Les femelles sont jaune plus clair ou blanches, avec une bordure foncée réduite ou absente[2].
-Le revers est jaune sans bordure foncée et le point discocellulaire au centre de l'aile postérieure est de couleur argentée et cerclé de marron[3].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Colias gigantea gigantea de l'Alaska à l'Ontario.
+Colias gigantea mayi F. &amp; R. Chermock, 1940 ; dans le Wyoming, le Montana et l'Oregon.
+Colias gigantea harroweri Klots, 1940 .</t>
         </is>
       </c>
     </row>
@@ -607,15 +625,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias gigantea vole en juin et juillet, en une seule génération[4].
-Colias gigantea hiberne au troisième stade de la chenille[2].
-Plantes hôtes
-Les plantes hôte de sa chenille sont très nombreuses, des Salix dont Salix reticulata[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias giganteae est un papillon de taille moyenne à grande (son envergure varie de 51 à 70 mm). Les ailes du mâle sont d'une couleur jaune, à bordure marron foncé veinée de jaune avec la cellule à l'aile antérieure  marquée d'un point noir et un point discocellulaire jaune très peu visible au centre de l'aile postérieure.
+Les femelles sont jaune plus clair ou blanches, avec une bordure foncée réduite ou absente.
+Le revers est jaune sans bordure foncée et le point discocellulaire au centre de l'aile postérieure est de couleur argentée et cerclé de marron.
 </t>
         </is>
       </c>
@@ -641,16 +660,159 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias gigantea vole en juin et juillet, en une seule génération.
+Colias gigantea hiberne au troisième stade de la chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colias_gigantea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_gigantea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille sont très nombreuses, des Salix dont Salix reticulata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_gigantea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_gigantea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias gigantea est présent dans le nord de l'Amérique du Nord, en Alaska, au Canada dans les Territoires du Nord-Ouest, le Manitoba, l'Alberta, la Saskatchewan, l'Ontario, le Yukon et la Colombie-Britannique et dans les Montagnes Rocheuses du nord-ouest des États-Unis  dans le Montana, l'Oregon et le Wyoming.
-Biotope
-Il réside dans les saulaies humides de la toundra et les saulaies tourbeuses[3].
-Protection
-Pas de statut de protection particulier[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_gigantea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_gigantea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les saulaies humides de la toundra et les saulaies tourbeuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colias_gigantea</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_gigantea</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
